--- a/biology/Botanique/Cicadelle_de_la_pomme_de_terre/Cicadelle_de_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Cicadelle_de_la_pomme_de_terre/Cicadelle_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Empoasca fabae
-La cicadelle de la pomme de terre (Empoasca fabae) est une espèce d'insectes hémiptères de la famille des Cicadellidae qui est un ravageur de la pomme de terre, mais également d'autres cultures importantes économiquement comme la luzerne, le pommier, les fraisiers, le haricot, le soja... En dehors des espèces cultivées le nombre d'espèces végétales hôtes de cet insecte est très important. Selon une étude, la liste des plantes-hôtes comprend 220 espèces réparties en 100 genres et 26 familles, dont 62 % des espèces pour la seule famille des Fabaceae[1].
+La cicadelle de la pomme de terre (Empoasca fabae) est une espèce d'insectes hémiptères de la famille des Cicadellidae qui est un ravageur de la pomme de terre, mais également d'autres cultures importantes économiquement comme la luzerne, le pommier, les fraisiers, le haricot, le soja... En dehors des espèces cultivées le nombre d'espèces végétales hôtes de cet insecte est très important. Selon une étude, la liste des plantes-hôtes comprend 220 espèces réparties en 100 genres et 26 familles, dont 62 % des espèces pour la seule famille des Fabaceae.
 Ce sont de petits insectes (les adultes mesurent 3 mm de long), ailés, sauteurs, piqueurs-suceurs, qui se nourrissent en suçant la sève des feuilles. Ce faisant ils injectent dans la plante une toxine qui bloque la circulation de la sève dans le système vasculaire et provoque un dessèchement localisé, la « brûlure de la cicadelle », et en cas d'attaques importantes, un affaiblissement de la plante et une perte de rendement.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon EOL                          (1er nov 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon EOL                          (1er nov 2013) :
 Empoa albopicta Forbes, 1884
 Chloroneura malifica Ball, 1924
 Empoasca viridiscens Osborn, 1921
